--- a/Homeworks/Excel/MyNotes/2/Activities/12-Stu_ProductPivot/Unsolved/ProductionPivot_Unsolved.xlsx
+++ b/Homeworks/Excel/MyNotes/2/Activities/12-Stu_ProductPivot/Unsolved/ProductionPivot_Unsolved.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\GitHub\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\2\Activities\12-Stu_ProductPivot\Unsolved\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay\OneDrive\Documents\Class\Class_SubmissionGT\Homeworks\Excel\MyNotes\2\Activities\12-Stu_ProductPivot\Unsolved\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1019672-5A83-451C-A089-94FBDCE52678}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12780" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product List" sheetId="1" r:id="rId1"/>
     <sheet name="Orders" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -120,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -512,7 +519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -582,7 +589,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A52" si="0">100+ROW()-2</f>
+        <f t="shared" ref="A4:A11" si="0">100+ROW()-2</f>
         <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -783,11 +790,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E29"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,7 +831,10 @@
       <c r="C2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4">
+        <f>VLOOKUP(B2,'Product List'!$A$1:$C$18,3,FALSE)</f>
+        <v>10.95</v>
+      </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -837,7 +847,10 @@
       <c r="C3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4">
+        <f>VLOOKUP(B3,'Product List'!$A$1:$C$18,3,FALSE)</f>
+        <v>15.99</v>
+      </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -850,7 +863,10 @@
       <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4">
+        <f>VLOOKUP(B4,'Product List'!$A$1:$C$18,3,FALSE)</f>
+        <v>10.95</v>
+      </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -863,7 +879,10 @@
       <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4">
+        <f>VLOOKUP(B5,'Product List'!$A$1:$C$18,3,FALSE)</f>
+        <v>3.99</v>
+      </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -876,7 +895,10 @@
       <c r="C6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4">
+        <f>VLOOKUP(B6,'Product List'!$A$1:$C$18,3,FALSE)</f>
+        <v>7.95</v>
+      </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -889,7 +911,10 @@
       <c r="C7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4">
+        <f>VLOOKUP(B7,'Product List'!$A$1:$C$18,3,FALSE)</f>
+        <v>7.75</v>
+      </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -902,7 +927,10 @@
       <c r="C8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4">
+        <f>VLOOKUP(B8,'Product List'!$A$1:$C$18,3,FALSE)</f>
+        <v>19.96</v>
+      </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -915,7 +943,10 @@
       <c r="C9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4">
+        <f>VLOOKUP(B9,'Product List'!$A$1:$C$18,3,FALSE)</f>
+        <v>6.76</v>
+      </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -928,7 +959,10 @@
       <c r="C10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4">
+        <f>VLOOKUP(B10,'Product List'!$A$1:$C$18,3,FALSE)</f>
+        <v>10.95</v>
+      </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -941,7 +975,10 @@
       <c r="C11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4">
+        <f>VLOOKUP(B11,'Product List'!$A$1:$C$18,3,FALSE)</f>
+        <v>3.99</v>
+      </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -954,7 +991,10 @@
       <c r="C12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4">
+        <f>VLOOKUP(B12,'Product List'!$A$1:$C$18,3,FALSE)</f>
+        <v>3.99</v>
+      </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -967,7 +1007,10 @@
       <c r="C13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4">
+        <f>VLOOKUP(B13,'Product List'!$A$1:$C$18,3,FALSE)</f>
+        <v>31.99</v>
+      </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -980,7 +1023,10 @@
       <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4">
+        <f>VLOOKUP(B14,'Product List'!$A$1:$C$18,3,FALSE)</f>
+        <v>19.96</v>
+      </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -993,7 +1039,10 @@
       <c r="C15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4">
+        <f>VLOOKUP(B15,'Product List'!$A$1:$C$18,3,FALSE)</f>
+        <v>31.99</v>
+      </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1006,7 +1055,10 @@
       <c r="C16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4">
+        <f>VLOOKUP(B16,'Product List'!$A$1:$C$18,3,FALSE)</f>
+        <v>14.96</v>
+      </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1019,7 +1071,10 @@
       <c r="C17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4">
+        <f>VLOOKUP(B17,'Product List'!$A$1:$C$18,3,FALSE)</f>
+        <v>3.99</v>
+      </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1032,7 +1087,10 @@
       <c r="C18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4">
+        <f>VLOOKUP(B18,'Product List'!$A$1:$C$18,3,FALSE)</f>
+        <v>6.76</v>
+      </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1045,7 +1103,10 @@
       <c r="C19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4">
+        <f>VLOOKUP(B19,'Product List'!$A$1:$C$18,3,FALSE)</f>
+        <v>10.95</v>
+      </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1058,7 +1119,10 @@
       <c r="C20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4">
+        <f>VLOOKUP(B20,'Product List'!$A$1:$C$18,3,FALSE)</f>
+        <v>15.99</v>
+      </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1071,7 +1135,10 @@
       <c r="C21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4">
+        <f>VLOOKUP(B21,'Product List'!$A$1:$C$18,3,FALSE)</f>
+        <v>3.99</v>
+      </c>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1084,7 +1151,10 @@
       <c r="C22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4">
+        <f>VLOOKUP(B22,'Product List'!$A$1:$C$18,3,FALSE)</f>
+        <v>4.42</v>
+      </c>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1097,7 +1167,10 @@
       <c r="C23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4">
+        <f>VLOOKUP(B23,'Product List'!$A$1:$C$18,3,FALSE)</f>
+        <v>109.99</v>
+      </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1110,7 +1183,10 @@
       <c r="C24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4">
+        <f>VLOOKUP(B24,'Product List'!$A$1:$C$18,3,FALSE)</f>
+        <v>109.99</v>
+      </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1123,7 +1199,10 @@
       <c r="C25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4">
+        <f>VLOOKUP(B25,'Product List'!$A$1:$C$18,3,FALSE)</f>
+        <v>4.42</v>
+      </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1136,7 +1215,10 @@
       <c r="C26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4">
+        <f>VLOOKUP(B26,'Product List'!$A$1:$C$18,3,FALSE)</f>
+        <v>19.96</v>
+      </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1149,7 +1231,10 @@
       <c r="C27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="4">
+        <f>VLOOKUP(B27,'Product List'!$A$1:$C$18,3,FALSE)</f>
+        <v>3.99</v>
+      </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1162,7 +1247,10 @@
       <c r="C28" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="4">
+        <f>VLOOKUP(B28,'Product List'!$A$1:$C$18,3,FALSE)</f>
+        <v>19.96</v>
+      </c>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1175,7 +1263,10 @@
       <c r="C29" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="4">
+        <f>VLOOKUP(B29,'Product List'!$A$1:$C$18,3,FALSE)</f>
+        <v>9.99</v>
+      </c>
       <c r="E29" s="4"/>
     </row>
   </sheetData>
